--- a/PCAcombined_predicted_factors_matrix_6.xlsx
+++ b/PCAcombined_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1555188997129486</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19662746152511</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08755651865756972</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.003807143876592728</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.06211376271901085</v>
+        <v>0.1966520881734066</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.3947721068834047</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3346732250157681</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2527928755651246</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1964776818151259</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1565922098935584</v>
+        <v>0.3347151412351143</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>1.033132751144792</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7168516152392806</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3620166716780154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.1990789736090757</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1178460517159765</v>
+        <v>-0.7169413974725092</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5954567851258231</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3909398030924081</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2331045203585592</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1279874738627585</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0625925550645363</v>
+        <v>0.390988766431304</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.4738426926373568</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2198801919634283</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.007596414022678275</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01910590870244598</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01583910613710252</v>
+        <v>-0.2199077309049038</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.1443363205182071</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1169041445987271</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03603527262860832</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.005163186041522686</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.004640215752180697</v>
+        <v>0.1169187862832155</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_6.xlsx
+++ b/PCAcombined_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.1966520881734066</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.1799175310819796</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1449571610152376</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.3347151412351143</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2752082770493448</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2232813177460677</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.7169413974725092</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4991934050380696</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.344997629890412</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.390988766431304</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.271299170756569</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1899939091372997</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.2199077309049038</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1314070817269701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.08687564558964669</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -487,6 +523,12 @@
       </c>
       <c r="B7" t="n">
         <v>0.1169187862832155</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08605498401805993</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06026043262642606</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_6.xlsx
+++ b/PCAcombined_predicted_factors_matrix_6.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA8A50-CA2A-4F60-8C4B-1B5923828471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,115 +376,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.1555188997129486</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.15551889971294861</v>
+      </c>
+      <c r="B2">
         <v>0.1966520881734066</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1799175310819796</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1449571610152376</v>
+      <c r="C2">
+        <v>0.18096323938893691</v>
+      </c>
+      <c r="D2">
+        <v>0.14832277729955989</v>
+      </c>
+      <c r="E2">
+        <v>0.10949246654884071</v>
+      </c>
+      <c r="F2">
+        <v>6.8987741639555941E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.9019136742283829E-2</v>
+      </c>
+      <c r="H2">
+        <v>-9.3046361187453519E-3</v>
+      </c>
+      <c r="I2">
+        <v>-4.5486143630084533E-2</v>
+      </c>
+      <c r="J2">
+        <v>-7.9380849875551107E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.1110424221974784</v>
+      </c>
+      <c r="L2">
+        <v>-0.1406269361000812</v>
+      </c>
+      <c r="M2">
+        <v>-0.16833424339010269</v>
+      </c>
+      <c r="N2">
+        <v>-0.19437338184882449</v>
+      </c>
+      <c r="O2">
+        <v>-0.21894341652451429</v>
+      </c>
+      <c r="P2">
+        <v>-0.24222396852083561</v>
+      </c>
+      <c r="Q2">
+        <v>-0.26437162726261532</v>
+      </c>
+      <c r="R2">
+        <v>-0.28551976773330151</v>
+      </c>
+      <c r="S2">
+        <v>-0.30578019239016052</v>
+      </c>
+      <c r="T2">
+        <v>-0.32524561787172418</v>
+      </c>
+      <c r="U2">
+        <v>-0.34399242146197018</v>
+      </c>
+      <c r="V2">
+        <v>-0.36208331701594798</v>
+      </c>
+      <c r="W2">
+        <v>-0.37956979058635892</v>
+      </c>
+      <c r="X2">
+        <v>-0.39649422411595531</v>
+      </c>
+      <c r="Y2">
+        <v>-0.41289169302913009</v>
+      </c>
+      <c r="Z2">
+        <v>-0.42879145506395799</v>
+      </c>
+      <c r="AA2">
+        <v>-0.44421816303039202</v>
+      </c>
+      <c r="AB2">
+        <v>-0.45919283979692282</v>
+      </c>
+      <c r="AC2">
+        <v>-0.47373365385095118</v>
+      </c>
+      <c r="AD2">
+        <v>-0.48785653087275099</v>
+      </c>
+      <c r="AE2">
+        <v>-0.50157563252304505</v>
+      </c>
+      <c r="AF2">
+        <v>-0.51490372902413961</v>
+      </c>
+      <c r="AG2">
+        <v>-0.52785248764780313</v>
+      </c>
+      <c r="AH2">
+        <v>-0.54043269517855741</v>
+      </c>
+      <c r="AI2">
+        <v>-0.55265442890892358</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.56452718776002775</v>
+      </c>
+      <c r="AK2">
+        <v>-0.57605999267414953</v>
+      </c>
+      <c r="AL2">
+        <v>-0.58726146343786356</v>
+      </c>
+      <c r="AM2">
+        <v>-0.59813987750047914</v>
+      </c>
+      <c r="AN2">
+        <v>-0.60870321508786729</v>
+      </c>
+      <c r="AO2">
+        <v>-0.61895919391732679</v>
+      </c>
+      <c r="AP2">
+        <v>-0.62891529604301044</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.6385787887595743</v>
+      </c>
+      <c r="AR2">
+        <v>-0.64795674102768963</v>
+      </c>
+      <c r="AS2">
+        <v>-0.65705603652895817</v>
+      </c>
+      <c r="AT2">
+        <v>-0.66588338418582482</v>
+      </c>
+      <c r="AU2">
+        <v>-0.67444532677516877</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.3947721068834047</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3347151412351143</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2752082770493448</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2232813177460677</v>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.39477210688340469</v>
+      </c>
+      <c r="B3">
+        <v>0.33471514123511431</v>
+      </c>
+      <c r="C3">
+        <v>0.27502652865321109</v>
+      </c>
+      <c r="D3">
+        <v>0.22270771434142511</v>
+      </c>
+      <c r="E3">
+        <v>0.18006731267017101</v>
+      </c>
+      <c r="F3">
+        <v>0.14634929759724949</v>
+      </c>
+      <c r="G3">
+        <v>0.12020529445660411</v>
+      </c>
+      <c r="H3">
+        <v>0.1002914363557426</v>
+      </c>
+      <c r="I3">
+        <v>8.5413316448478188E-2</v>
+      </c>
+      <c r="J3">
+        <v>7.4554005033654336E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.6867880566337023E-2</v>
+      </c>
+      <c r="L3">
+        <v>6.1663266965433547E-2</v>
+      </c>
+      <c r="M3">
+        <v>5.8381696910929003E-2</v>
+      </c>
+      <c r="N3">
+        <v>5.6577096978300392E-2</v>
+      </c>
+      <c r="O3">
+        <v>5.5896449694669323E-2</v>
+      </c>
+      <c r="P3">
+        <v>5.6062634274754428E-2</v>
+      </c>
+      <c r="Q3">
+        <v>5.6859672133074378E-2</v>
+      </c>
+      <c r="R3">
+        <v>5.8120332476285258E-2</v>
+      </c>
+      <c r="S3">
+        <v>5.9715907534622997E-2</v>
+      </c>
+      <c r="T3">
+        <v>6.1547899678884833E-2</v>
+      </c>
+      <c r="U3">
+        <v>6.3541343570147721E-2</v>
+      </c>
+      <c r="V3">
+        <v>6.5639495531339118E-2</v>
+      </c>
+      <c r="W3">
+        <v>6.7799646331916513E-2</v>
+      </c>
+      <c r="X3">
+        <v>6.9989844131115239E-2</v>
+      </c>
+      <c r="Y3">
+        <v>7.2186346296846629E-2</v>
+      </c>
+      <c r="Z3">
+        <v>7.43716492685947E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.653297305812444E-2</v>
+      </c>
+      <c r="AB3">
+        <v>7.8661100776481821E-2</v>
+      </c>
+      <c r="AC3">
+        <v>8.0749493673186332E-2</v>
+      </c>
+      <c r="AD3">
+        <v>8.2793618807060987E-2</v>
+      </c>
+      <c r="AE3">
+        <v>8.4790440017032329E-2</v>
+      </c>
+      <c r="AF3">
+        <v>8.6738033756555005E-2</v>
+      </c>
+      <c r="AG3">
+        <v>8.8635300023933036E-2</v>
+      </c>
+      <c r="AH3">
+        <v>9.0481745456661142E-2</v>
+      </c>
+      <c r="AI3">
+        <v>9.2277321007230073E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>9.4022300776530315E-2</v>
+      </c>
+      <c r="AK3">
+        <v>9.5717191795245668E-2</v>
+      </c>
+      <c r="AL3">
+        <v>9.7362667015348431E-2</v>
+      </c>
+      <c r="AM3">
+        <v>9.8959515665873937E-2</v>
+      </c>
+      <c r="AN3">
+        <v>0.100508606569516</v>
+      </c>
+      <c r="AO3">
+        <v>0.10201086111213729</v>
+      </c>
+      <c r="AP3">
+        <v>0.1034672333865531</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1048786956577369</v>
+      </c>
+      <c r="AR3">
+        <v>0.10624622776745429</v>
+      </c>
+      <c r="AS3">
+        <v>0.1075708094497282</v>
+      </c>
+      <c r="AT3">
+        <v>0.10885341479306961</v>
+      </c>
+      <c r="AU3">
+        <v>0.1100950082830045</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.033132751144792</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.7169413974725092</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4991934050380696</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.344997629890412</v>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1.0331327511447921</v>
+      </c>
+      <c r="B4">
+        <v>-0.71694139747250918</v>
+      </c>
+      <c r="C4">
+        <v>-0.49899262694570051</v>
+      </c>
+      <c r="D4">
+        <v>-0.34444139641883748</v>
+      </c>
+      <c r="E4">
+        <v>-0.23687638439802891</v>
+      </c>
+      <c r="F4">
+        <v>-0.16242534936331299</v>
+      </c>
+      <c r="G4">
+        <v>-0.1109590987763569</v>
+      </c>
+      <c r="H4">
+        <v>-7.5381721468276916E-2</v>
+      </c>
+      <c r="I4">
+        <v>-5.0785857240257207E-2</v>
+      </c>
+      <c r="J4">
+        <v>-3.3787918336942058E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.2053545338391819E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.3969362077347509E-2</v>
+      </c>
+      <c r="M4">
+        <v>-8.4180983393317768E-3</v>
+      </c>
+      <c r="N4">
+        <v>-4.6247083731507524E-3</v>
+      </c>
+      <c r="O4">
+        <v>-2.050845617429384E-3</v>
+      </c>
+      <c r="P4">
+        <v>-3.2226292356394952E-4</v>
+      </c>
+      <c r="Q4">
+        <v>8.2130300452840099E-4</v>
+      </c>
+      <c r="R4">
+        <v>1.560831450985624E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.0221046379552301E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.292460811735445E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.432463112511594E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.4840346223800771E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.476132282626504E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.4287042882724218E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.3554491846976568E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.2657380580423251E-3</v>
+      </c>
+      <c r="AA4">
+        <v>2.1659522031783232E-3</v>
+      </c>
+      <c r="AB4">
+        <v>2.0604126881841349E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.9520251907627309E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.8427263908815761E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.7337922437580451E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.6260502793345739E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.520025344894265E-3</v>
+      </c>
+      <c r="AH4">
+        <v>1.4160392962411759E-3</v>
+      </c>
+      <c r="AI4">
+        <v>1.31427890839189E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>1.214841919393414E-3</v>
+      </c>
+      <c r="AK4">
+        <v>1.1177680789029661E-3</v>
+      </c>
+      <c r="AL4">
+        <v>1.0230599529532139E-3</v>
+      </c>
+      <c r="AM4">
+        <v>9.3069676112972691E-4</v>
+      </c>
+      <c r="AN4">
+        <v>8.4064349795832417E-4</v>
+      </c>
+      <c r="AO4">
+        <v>7.5285688082079845E-4</v>
+      </c>
+      <c r="AP4">
+        <v>6.6728917637249013E-4</v>
+      </c>
+      <c r="AQ4">
+        <v>5.8389061982806246E-4</v>
+      </c>
+      <c r="AR4">
+        <v>5.0261090956696202E-4</v>
+      </c>
+      <c r="AS4">
+        <v>4.2340010099238778E-4</v>
+      </c>
+      <c r="AT4">
+        <v>3.4620911556603541E-4</v>
+      </c>
+      <c r="AU4">
+        <v>2.709900077852241E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.5954567851258231</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.390988766431304</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.271299170756569</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1899939091372997</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.59545678512582312</v>
+      </c>
+      <c r="B5">
+        <v>0.39098876643130398</v>
+      </c>
+      <c r="C5">
+        <v>0.27124937792581361</v>
+      </c>
+      <c r="D5">
+        <v>0.18985857840747239</v>
+      </c>
+      <c r="E5">
+        <v>0.13275696919797439</v>
+      </c>
+      <c r="F5">
+        <v>9.2275606575844743E-2</v>
+      </c>
+      <c r="G5">
+        <v>6.3543100191378876E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.319288424332237E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.8818205723421669E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.868340963353889E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.153907521778319E-2</v>
+      </c>
+      <c r="L5">
+        <v>6.4909114735603578E-3</v>
+      </c>
+      <c r="M5">
+        <v>2.903195972998636E-3</v>
+      </c>
+      <c r="N5">
+        <v>3.2717189405891389E-4</v>
+      </c>
+      <c r="O5">
+        <v>-1.551777243693694E-3</v>
+      </c>
+      <c r="P5">
+        <v>-2.9527615931879149E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-4.0273818943575082E-3</v>
+      </c>
+      <c r="R5">
+        <v>-4.879843629335601E-3</v>
+      </c>
+      <c r="S5">
+        <v>-5.5812946763755871E-3</v>
+      </c>
+      <c r="T5">
+        <v>-6.1799723963658513E-3</v>
+      </c>
+      <c r="U5">
+        <v>-6.708337479771489E-3</v>
+      </c>
+      <c r="V5">
+        <v>-7.188057965965158E-3</v>
+      </c>
+      <c r="W5">
+        <v>-7.6334701318022009E-3</v>
+      </c>
+      <c r="X5">
+        <v>-8.0539671449517646E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-8.4556374255829042E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-8.8423810358611334E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-9.2166650245721713E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-9.5800305020816434E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-9.9334300401665177E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-1.027744987155864E-2</v>
+      </c>
+      <c r="AE5">
+        <v>-1.0612454437596839E-2</v>
+      </c>
+      <c r="AF5">
+        <v>-1.093867901667666E-2</v>
+      </c>
+      <c r="AG5">
+        <v>-1.12562879607626E-2</v>
+      </c>
+      <c r="AH5">
+        <v>-1.156541039884872E-2</v>
+      </c>
+      <c r="AI5">
+        <v>-1.186616137160028E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.215865370081832E-2</v>
+      </c>
+      <c r="AK5">
+        <v>-1.244300409094236E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.2719335741819941E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.2987778936932599E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.324847053076759E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.35015529042904E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.3747172727584691E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.398547972205955E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.4216625522907041E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.444076268670382E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.465804385631542E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.4868621077231329E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.4738426926373568</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2199077309049038</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1314070817269701</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.08687564558964669</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.47384269263735679</v>
+      </c>
+      <c r="B6">
+        <v>-0.21990773090490379</v>
+      </c>
+      <c r="C6">
+        <v>-0.13138190550850851</v>
+      </c>
+      <c r="D6">
+        <v>-8.6800718646747307E-2</v>
+      </c>
+      <c r="E6">
+        <v>-5.9584456540512573E-2</v>
+      </c>
+      <c r="F6">
+        <v>-4.1379136341815323E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.8739949535277719E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.9834528632350312E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.3522023480263771E-2</v>
+      </c>
+      <c r="J6">
+        <v>-9.0371902010847917E-3</v>
+      </c>
+      <c r="K6">
+        <v>-5.8498508813131086E-3</v>
+      </c>
+      <c r="L6">
+        <v>-3.5872108394362288E-3</v>
+      </c>
+      <c r="M6">
+        <v>-1.9851111078453328E-3</v>
+      </c>
+      <c r="N6">
+        <v>-8.5550440253671705E-4</v>
+      </c>
+      <c r="O6">
+        <v>-6.4115981869746104E-5</v>
+      </c>
+      <c r="P6">
+        <v>4.8513453260327297E-4</v>
+      </c>
+      <c r="Q6">
+        <v>8.6109635895781139E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.1131510611115979E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.276735225845667E-3</v>
+      </c>
+      <c r="T6">
+        <v>1.3772825234501501E-3</v>
+      </c>
+      <c r="U6">
+        <v>1.4330447676306451E-3</v>
+      </c>
+      <c r="V6">
+        <v>1.457114587603876E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.458877623953403E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.4450560836894251E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.420459037928881E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.3885219886512041E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.351694874489902E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.3117210163250529E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.269837569622812E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.22691948628075E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.183582831766472E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.140258871368098E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.0972471464579881E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.054753460342128E-3</v>
+      </c>
+      <c r="AI6">
+        <v>1.01291703425628E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>9.7182989821913894E-4</v>
+      </c>
+      <c r="AK6">
+        <v>9.3155071968192111E-4</v>
+      </c>
+      <c r="AL6">
+        <v>8.9211465217352965E-4</v>
+      </c>
+      <c r="AM6">
+        <v>8.5354033931111606E-4</v>
+      </c>
+      <c r="AN6">
+        <v>8.158348880826147E-4</v>
+      </c>
+      <c r="AO6">
+        <v>7.7899739426055782E-4</v>
+      </c>
+      <c r="AP6">
+        <v>7.4302143689595058E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>7.0789683978160229E-4</v>
+      </c>
+      <c r="AR6">
+        <v>6.7361091247835681E-4</v>
+      </c>
+      <c r="AS6">
+        <v>6.4014932239859763E-4</v>
+      </c>
+      <c r="AT6">
+        <v>6.0749670578968875E-4</v>
+      </c>
+      <c r="AU6">
+        <v>5.7563709424427313E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.1443363205182071</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.14433632051820711</v>
+      </c>
+      <c r="B7">
         <v>0.1169187862832155</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.08605498401805993</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06026043262642606</v>
+      <c r="C7">
+        <v>8.6078724485998154E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.0320003854032911E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.1635968894336878E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.857005304133204E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.953485889975233E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.3318348852791489E-2</v>
+      </c>
+      <c r="I7">
+        <v>9.059860407158794E-3</v>
+      </c>
+      <c r="J7">
+        <v>6.1587202386958976E-3</v>
+      </c>
+      <c r="K7">
+        <v>4.1972069147099026E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.8850056271401909E-3</v>
+      </c>
+      <c r="M7">
+        <v>2.0204374756724371E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.463521654064472E-3</v>
+      </c>
+      <c r="O7">
+        <v>1.1172353581900591E-3</v>
+      </c>
+      <c r="P7">
+        <v>9.1445532938265591E-4</v>
+      </c>
+      <c r="Q7">
+        <v>8.0885030511385916E-4</v>
+      </c>
+      <c r="R7">
+        <v>7.6852816241617695E-4</v>
+      </c>
+      <c r="S7">
+        <v>7.7160665388119603E-4</v>
+      </c>
+      <c r="T7">
+        <v>8.0312820145495315E-4</v>
+      </c>
+      <c r="U7">
+        <v>8.5291375644655346E-4</v>
+      </c>
+      <c r="V7">
+        <v>9.1407239813482062E-4</v>
+      </c>
+      <c r="W7">
+        <v>9.8196838776686414E-4</v>
+      </c>
+      <c r="X7">
+        <v>1.0535069374313811E-3</v>
+      </c>
+      <c r="Y7">
+        <v>1.126641674069472E-3</v>
+      </c>
+      <c r="Z7">
+        <v>1.200036018033244E-3</v>
+      </c>
+      <c r="AA7">
+        <v>1.272831182345833E-3</v>
+      </c>
+      <c r="AB7">
+        <v>1.344487844339743E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.414678577310756E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.483215142431212E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.5499996338576699E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.6149918777888361E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.678187854910306E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.739605558461816E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.7992758364539789E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.857236550396788E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.91352892172816E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.9681953062586901E-3</v>
+      </c>
+      <c r="AM7">
+        <v>2.0212778887976489E-3</v>
+      </c>
+      <c r="AN7">
+        <v>2.0728179610899769E-3</v>
+      </c>
+      <c r="AO7">
+        <v>2.122855561727908E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.1714293342173781E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.218576511088415E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.2643329660797691E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.3087332988136629E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.3518109307949868E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.3935982007926562E-3</v>
       </c>
     </row>
   </sheetData>
